--- a/BalanceSheet/GRMN_bal.xlsx
+++ b/BalanceSheet/GRMN_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-87450000.0</v>
+        <v>838000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>84789000.0</v>
+        <v>762000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1063000.0</v>
+        <v>821000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-9808000.0</v>
+        <v>813000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-47318000.0</v>
+        <v>790000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>752908000.0</v>
@@ -1842,19 +1842,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-3470000.0</v>
+        <v>251000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>13386000.0</v>
+        <v>259000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>39524000.0</v>
+        <v>235000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-11612000.0</v>
+        <v>193000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-39851000.0</v>
+        <v>200000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>240831000.0</v>
@@ -3495,19 +3495,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>497000.0</v>
+        <v>-131000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-7422000.0</v>
+        <v>-129000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>14081000.0</v>
+        <v>-123000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-10106000.0</v>
+        <v>-151000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>10378000.0</v>
+        <v>-146000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>114754000.0</v>
@@ -5161,7 +5161,7 @@
         <v>-1387000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>-1340000000.0</v>
+        <v>-1340030000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>-1234089000.0</v>
